--- a/ar_tree_results.xlsx
+++ b/ar_tree_results.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{512D6CF9-B8B0-4195-82D7-01F7F2EFD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5424E36C-1E1B-4B03-AACB-C4BC37EB6838}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="13_ncr:1_{512D6CF9-B8B0-4195-82D7-01F7F2EFD239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE2A462-A8FD-4050-9522-00EFF216EDB5}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
   <si>
     <t>BACE</t>
   </si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>MoLFormer-XL</t>
+  </si>
+  <si>
+    <t>sider 57.7</t>
   </si>
 </sst>
 </file>
@@ -612,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,6 +771,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -795,36 +820,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1114,7 @@
   <dimension ref="B2:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,28 +1129,28 @@
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54"/>
-      <c r="J3" s="60" t="s">
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="J3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="66"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="56"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="34" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1166,7 @@
       <c r="H4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="61"/>
+      <c r="J4" s="68"/>
       <c r="K4" s="39" t="s">
         <v>0</v>
       </c>
@@ -1191,34 +1186,34 @@
         <v>14</v>
       </c>
       <c r="D5" s="45">
-        <v>77.2</v>
+        <v>76.2</v>
       </c>
       <c r="E5" s="9">
-        <v>66.7</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="F5" s="46">
-        <v>99.9</v>
+        <v>99.7</v>
       </c>
       <c r="G5" s="9">
-        <v>69.7</v>
+        <v>63.2</v>
       </c>
       <c r="H5" s="47">
-        <v>85.6</v>
+        <v>87.2</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="48">
-        <v>0.89</v>
-      </c>
-      <c r="L5" s="68">
-        <v>0.43</v>
-      </c>
-      <c r="M5" s="68">
-        <v>0.66</v>
+        <v>1.02</v>
+      </c>
+      <c r="L5" s="57">
+        <v>0.45</v>
+      </c>
+      <c r="M5" s="57">
+        <v>0.77</v>
       </c>
       <c r="N5" s="51">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -1462,7 +1457,7 @@
       <c r="M12" s="16">
         <v>2.1800000000000002</v>
       </c>
-      <c r="N12" s="66">
+      <c r="N12" s="55">
         <v>0.65</v>
       </c>
     </row>
@@ -1508,7 +1503,7 @@
       <c r="D14" s="28">
         <v>87.6</v>
       </c>
-      <c r="E14" s="70">
+      <c r="E14" s="2">
         <v>91.2</v>
       </c>
       <c r="F14" s="2">
@@ -1602,7 +1597,7 @@
       <c r="M16" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="N16" s="67">
+      <c r="N16" s="56">
         <v>0.65</v>
       </c>
     </row>
@@ -1654,7 +1649,7 @@
       <c r="F18" s="24">
         <v>60.1</v>
       </c>
-      <c r="G18" s="71">
+      <c r="G18" s="24">
         <v>83.4</v>
       </c>
       <c r="H18" s="25" t="s">
@@ -1677,7 +1672,7 @@
       </c>
     </row>
     <row r="19" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="44" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="45">
@@ -1692,13 +1687,13 @@
       <c r="G19" s="46">
         <v>84.7</v>
       </c>
-      <c r="H19" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="64" t="s">
+      <c r="H19" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="65" t="s">
+      <c r="K19" s="54" t="s">
         <v>13</v>
       </c>
       <c r="L19" s="49">
@@ -1707,7 +1702,7 @@
       <c r="M19" s="49">
         <v>0.23</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="58">
         <v>0.53</v>
       </c>
     </row>
@@ -1716,6 +1711,9 @@
       <c r="K22" s="50"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="50"/>
     </row>
@@ -1736,4 +1734,49 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863A4FEB-0ADD-47E8-90BC-59BCA7266C6D}">
+  <dimension ref="C4:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="45">
+        <v>77.2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="E5" s="46">
+        <v>99.9</v>
+      </c>
+      <c r="F5" s="9">
+        <v>69.7</v>
+      </c>
+      <c r="G5" s="47">
+        <v>85.6</v>
+      </c>
+      <c r="I5" s="48">
+        <v>0.89</v>
+      </c>
+      <c r="J5" s="57">
+        <v>0.43</v>
+      </c>
+      <c r="K5" s="57">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="51">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>